--- a/assets/images/tools.xlsx
+++ b/assets/images/tools.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\otter\_subversion\EMPHYSIS\trunk\40_Meetings\2021-02-10_ITEA-Final-Review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\otter\_github\EMPHYSIS\EMPHYSIS.github.io\assets\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAC2BE2-1267-4EBA-AA98-8F9631C88934}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5563FC41-DBAC-499B-AE28-786B38408B25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="0" windowWidth="22530" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10530" yWindow="0" windowWidth="22530" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="42">
   <si>
     <t>Tool Name</t>
   </si>
@@ -318,9 +318,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF5050"/>
       <color rgb="FF00A151"/>
       <color rgb="FF008000"/>
+      <color rgb="FFFF5050"/>
     </mruColors>
   </colors>
   <extLst>
@@ -634,7 +634,7 @@
   <dimension ref="B1:P16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +761,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="17"/>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="16"/>

--- a/assets/images/tools.xlsx
+++ b/assets/images/tools.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20358"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\otter\_github\EMPHYSIS\EMPHYSIS.github.io\assets\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eFMI\EMPHYSIS.github.io\assets\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5563FC41-DBAC-499B-AE28-786B38408B25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10530" yWindow="0" windowWidth="22530" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10530" yWindow="0" windowWidth="22530" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Tool Name</t>
   </si>
@@ -126,15 +125,6 @@
     <t>Lang to Beh. Model</t>
   </si>
   <si>
-    <t>Lang to EquCode</t>
-  </si>
-  <si>
-    <t>Equ to AlgCode</t>
-  </si>
-  <si>
-    <t>Prototype</t>
-  </si>
-  <si>
     <t>timing of AlgCode</t>
   </si>
   <si>
@@ -144,30 +134,20 @@
     <t>CEA</t>
   </si>
   <si>
-    <t>under development</t>
-  </si>
-  <si>
-    <t>Spec. under development</t>
-  </si>
-  <si>
-    <t>eFMI 1.0.0-alpha.4</t>
+    <t>Under development</t>
+  </si>
+  <si>
+    <t>Prototype finished</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF008000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,8 +174,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,12 +193,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,77 +224,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -630,381 +598,331 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:P16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="8" max="8" width="1.85546875" customWidth="1"/>
-    <col min="9" max="10" width="3.28515625" customWidth="1"/>
-    <col min="11" max="11" width="3.140625" customWidth="1"/>
-    <col min="12" max="12" width="1.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="3.140625" customWidth="1"/>
-    <col min="15" max="15" width="2.28515625" customWidth="1"/>
-    <col min="16" max="16" width="23.85546875" customWidth="1"/>
-    <col min="17" max="17" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="1.81640625" customWidth="1"/>
+    <col min="9" max="10" width="3.26953125" customWidth="1"/>
+    <col min="11" max="11" width="3.1796875" customWidth="1"/>
+    <col min="12" max="12" width="1.54296875" customWidth="1"/>
+    <col min="13" max="13" width="2.26953125" customWidth="1"/>
+    <col min="14" max="14" width="23.81640625" customWidth="1"/>
+    <col min="15" max="15" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="2:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+    <row r="1" spans="2:14" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="2:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="N4" s="21"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="N6" s="19"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="2:14" ht="4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="22"/>
-      <c r="P3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="M4" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="22"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="M6" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="M7" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="19"/>
-      <c r="M8" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="19"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="22"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="22"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="22"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="22"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="22"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="19"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="22"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="22"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="O16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
